--- a/breeding_patterns - win, sum/all F1 mice/Seasonal_Births_ LL _ 5 yr.xlsx
+++ b/breeding_patterns - win, sum/all F1 mice/Seasonal_Births_ LL _ 5 yr.xlsx
@@ -422,7 +422,7 @@
         <v>1681</v>
       </c>
       <c r="H2" t="n">
-        <v>1671</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +448,7 @@
         <v>1271</v>
       </c>
       <c r="H3" t="n">
-        <v>1616</v>
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
